--- a/debug/ASTER_debug.xlsx
+++ b/debug/ASTER_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,20 +568,25 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Stop_Loss</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>cutoff_price</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_price</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>next_buy_trigger_price</t>
         </is>
@@ -671,17 +676,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA2" t="n">
-        <v/>
-      </c>
-      <c r="AB2" t="inlineStr">
+        <v>0.4161</v>
+      </c>
+      <c r="AB2" t="n">
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.4599</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1.945</v>
       </c>
     </row>
@@ -769,17 +777,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+        <v>0.4161</v>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.4599</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -867,17 +878,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
+        <v>0.4161</v>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.4599</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>1.681</v>
       </c>
     </row>
@@ -965,17 +979,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="inlineStr">
+        <v>0.4161</v>
+      </c>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.4599</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>1.321</v>
       </c>
     </row>
@@ -1069,17 +1086,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
+        <v>0.4161</v>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v>1.2264</v>
-      </c>
       <c r="AD6" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1.155</v>
       </c>
     </row>
@@ -1171,15 +1191,18 @@
         <v>0.4599</v>
       </c>
       <c r="AA7" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB7" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
       <c r="AC7" t="n">
         <v/>
       </c>
       <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
         <v/>
       </c>
     </row>
@@ -1267,17 +1290,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA8" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>1.2264</v>
-      </c>
       <c r="AD8" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AE8" t="n">
         <v>1.155</v>
       </c>
     </row>
@@ -1371,17 +1397,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA9" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB9" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>1.2264</v>
-      </c>
       <c r="AD9" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -1473,15 +1502,18 @@
         <v>0.4599</v>
       </c>
       <c r="AA10" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB10" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
       <c r="AC10" t="n">
         <v/>
       </c>
       <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
         <v/>
       </c>
     </row>
@@ -1569,17 +1601,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA11" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB11" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>1.2264</v>
-      </c>
       <c r="AD11" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -1667,17 +1702,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA12" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB12" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.4599</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>1.352</v>
       </c>
     </row>
@@ -1765,17 +1803,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA13" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB13" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.4599</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>1.301</v>
       </c>
     </row>
@@ -1863,17 +1904,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA14" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB14" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>0.4599</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>1.262</v>
       </c>
     </row>
@@ -1967,17 +2011,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA15" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB15" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>1.2264</v>
-      </c>
       <c r="AD15" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AE15" t="n">
         <v>1.183</v>
       </c>
     </row>
@@ -2069,15 +2116,18 @@
         <v>0.4599</v>
       </c>
       <c r="AA16" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB16" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
       <c r="AC16" t="n">
         <v/>
       </c>
       <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
         <v/>
       </c>
     </row>
@@ -2165,17 +2215,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA17" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB17" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC17" t="n">
-        <v>1.2264</v>
-      </c>
       <c r="AD17" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AE17" t="n">
         <v>1.183</v>
       </c>
     </row>
@@ -2269,17 +2322,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA18" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB18" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC18" t="n">
-        <v>1.2264</v>
-      </c>
       <c r="AD18" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AE18" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -2373,17 +2429,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA19" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB19" t="n">
         <v>1.243935</v>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC19" t="n">
-        <v>1.1388</v>
-      </c>
       <c r="AD19" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE19" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -2475,15 +2534,18 @@
         <v>0.4599</v>
       </c>
       <c r="AA20" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB20" t="n">
-        <v/>
-      </c>
       <c r="AC20" t="n">
         <v/>
       </c>
       <c r="AD20" t="n">
+        <v/>
+      </c>
+      <c r="AE20" t="n">
         <v/>
       </c>
     </row>
@@ -2571,17 +2633,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA21" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB21" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>1.1388</v>
-      </c>
       <c r="AD21" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE21" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -2675,17 +2740,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA22" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB22" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC22" t="n">
-        <v>1.1388</v>
-      </c>
       <c r="AD22" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE22" t="n">
         <v>1.121</v>
       </c>
     </row>
@@ -2777,15 +2845,18 @@
         <v>0.4599</v>
       </c>
       <c r="AA23" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB23" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB23" t="n">
-        <v/>
-      </c>
       <c r="AC23" t="n">
         <v/>
       </c>
       <c r="AD23" t="n">
+        <v/>
+      </c>
+      <c r="AE23" t="n">
         <v/>
       </c>
     </row>
@@ -2873,17 +2944,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA24" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB24" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC24" t="n">
-        <v>1.1388</v>
-      </c>
       <c r="AD24" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE24" t="n">
         <v>1.121</v>
       </c>
     </row>
@@ -2903,7 +2977,7 @@
         <v>1.117</v>
       </c>
       <c r="E25" t="n">
-        <v>1.182</v>
+        <v>1.18</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2977,17 +3051,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA25" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB25" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC25" t="n">
-        <v>1.1388</v>
-      </c>
       <c r="AD25" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE25" t="n">
         <v>1.117</v>
       </c>
     </row>
@@ -3007,7 +3084,7 @@
         <v>1.117</v>
       </c>
       <c r="E26" t="n">
-        <v>1.182</v>
+        <v>1.18</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3079,15 +3156,18 @@
         <v>0.4599</v>
       </c>
       <c r="AA26" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB26" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB26" t="n">
-        <v/>
-      </c>
       <c r="AC26" t="n">
         <v/>
       </c>
       <c r="AD26" t="n">
+        <v/>
+      </c>
+      <c r="AE26" t="n">
         <v/>
       </c>
     </row>
@@ -3107,7 +3187,7 @@
         <v>1.117</v>
       </c>
       <c r="E27" t="n">
-        <v>1.182</v>
+        <v>1.18</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3175,17 +3255,20 @@
         <v>0.4599</v>
       </c>
       <c r="AA27" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB27" t="n">
         <v>1.19646</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC27" t="n">
-        <v>1.1388</v>
-      </c>
       <c r="AD27" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE27" t="n">
         <v>1.117</v>
       </c>
     </row>

--- a/debug/ASTER_debug.xlsx
+++ b/debug/ASTER_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2971,13 +2971,13 @@
         <v>1.176</v>
       </c>
       <c r="C25" t="n">
-        <v>1.217</v>
+        <v>1.243</v>
       </c>
       <c r="D25" t="n">
         <v>1.117</v>
       </c>
       <c r="E25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3078,13 +3078,13 @@
         <v>1.176</v>
       </c>
       <c r="C26" t="n">
-        <v>1.217</v>
+        <v>1.243</v>
       </c>
       <c r="D26" t="n">
         <v>1.117</v>
       </c>
       <c r="E26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         <v>1.176</v>
       </c>
       <c r="C27" t="n">
-        <v>1.217</v>
+        <v>1.243</v>
       </c>
       <c r="D27" t="n">
         <v>1.117</v>
       </c>
       <c r="E27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>1.02</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.313725</v>
+        <v>21.862745</v>
       </c>
       <c r="R27" t="n">
         <v>17.3</v>
@@ -3270,6 +3270,1450 @@
       </c>
       <c r="AE27" t="n">
         <v>1.117</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>BUY B2</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q28" t="n">
+        <v/>
+      </c>
+      <c r="R28" t="n">
+        <v/>
+      </c>
+      <c r="S28" t="n">
+        <v>6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v/>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v/>
+      </c>
+      <c r="L29" t="n">
+        <v/>
+      </c>
+      <c r="M29" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q29" t="n">
+        <v/>
+      </c>
+      <c r="R29" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC29" t="n">
+        <v/>
+      </c>
+      <c r="AD29" t="n">
+        <v/>
+      </c>
+      <c r="AE29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v/>
+      </c>
+      <c r="I30" t="n">
+        <v/>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+      <c r="K30" t="n">
+        <v/>
+      </c>
+      <c r="L30" t="n">
+        <v/>
+      </c>
+      <c r="M30" t="n">
+        <v/>
+      </c>
+      <c r="N30" t="n">
+        <v/>
+      </c>
+      <c r="O30" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>23.529412</v>
+      </c>
+      <c r="R30" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>BUY B2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q31" t="n">
+        <v/>
+      </c>
+      <c r="R31" t="n">
+        <v/>
+      </c>
+      <c r="S31" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v/>
+      </c>
+      <c r="J32" t="n">
+        <v/>
+      </c>
+      <c r="K32" t="n">
+        <v/>
+      </c>
+      <c r="L32" t="n">
+        <v/>
+      </c>
+      <c r="M32" t="n">
+        <v/>
+      </c>
+      <c r="N32" t="n">
+        <v/>
+      </c>
+      <c r="O32" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>16.862745</v>
+      </c>
+      <c r="R32" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ADD B3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q33" t="n">
+        <v/>
+      </c>
+      <c r="R33" t="n">
+        <v/>
+      </c>
+      <c r="S33" t="n">
+        <v>6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v/>
+      </c>
+      <c r="J34" t="n">
+        <v/>
+      </c>
+      <c r="K34" t="n">
+        <v/>
+      </c>
+      <c r="L34" t="n">
+        <v/>
+      </c>
+      <c r="M34" t="n">
+        <v/>
+      </c>
+      <c r="N34" t="n">
+        <v/>
+      </c>
+      <c r="O34" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>14.424112</v>
+      </c>
+      <c r="R34" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v/>
+      </c>
+      <c r="J35" t="n">
+        <v/>
+      </c>
+      <c r="K35" t="n">
+        <v/>
+      </c>
+      <c r="L35" t="n">
+        <v/>
+      </c>
+      <c r="M35" t="n">
+        <v/>
+      </c>
+      <c r="N35" t="n">
+        <v/>
+      </c>
+      <c r="O35" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>20.344456</v>
+      </c>
+      <c r="R35" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.949</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
+        <v/>
+      </c>
+      <c r="J36" t="n">
+        <v/>
+      </c>
+      <c r="K36" t="n">
+        <v/>
+      </c>
+      <c r="L36" t="n">
+        <v/>
+      </c>
+      <c r="M36" t="n">
+        <v/>
+      </c>
+      <c r="N36" t="n">
+        <v/>
+      </c>
+      <c r="O36" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>24.219591</v>
+      </c>
+      <c r="R36" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.19646</v>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v/>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v/>
+      </c>
+      <c r="L37" t="n">
+        <v/>
+      </c>
+      <c r="M37" t="n">
+        <v>1.155676</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.155676</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q37" t="n">
+        <v/>
+      </c>
+      <c r="R37" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.155676</v>
+      </c>
+      <c r="AC37" t="n">
+        <v/>
+      </c>
+      <c r="AD37" t="n">
+        <v/>
+      </c>
+      <c r="AE37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v/>
+      </c>
+      <c r="I38" t="n">
+        <v/>
+      </c>
+      <c r="J38" t="n">
+        <v/>
+      </c>
+      <c r="K38" t="n">
+        <v/>
+      </c>
+      <c r="L38" t="n">
+        <v/>
+      </c>
+      <c r="M38" t="n">
+        <v/>
+      </c>
+      <c r="N38" t="n">
+        <v/>
+      </c>
+      <c r="O38" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>24.973089</v>
+      </c>
+      <c r="R38" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.155676</v>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD38" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>BUY B2</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q39" t="n">
+        <v/>
+      </c>
+      <c r="R39" t="n">
+        <v/>
+      </c>
+      <c r="S39" t="n">
+        <v>6</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.155676</v>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v/>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v/>
+      </c>
+      <c r="L40" t="n">
+        <v/>
+      </c>
+      <c r="M40" t="n">
+        <v>1.089717</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q40" t="n">
+        <v/>
+      </c>
+      <c r="R40" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>6</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="AC40" t="n">
+        <v/>
+      </c>
+      <c r="AD40" t="n">
+        <v/>
+      </c>
+      <c r="AE40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v/>
+      </c>
+      <c r="I41" t="n">
+        <v/>
+      </c>
+      <c r="J41" t="n">
+        <v/>
+      </c>
+      <c r="K41" t="n">
+        <v/>
+      </c>
+      <c r="L41" t="n">
+        <v/>
+      </c>
+      <c r="M41" t="n">
+        <v/>
+      </c>
+      <c r="N41" t="n">
+        <v/>
+      </c>
+      <c r="O41" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>31.324004</v>
+      </c>
+      <c r="R41" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.0074</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD41" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
